--- a/Prototypes/AgPasture/Comparison/ParameterList.xlsx
+++ b/Prototypes/AgPasture/Comparison/ParameterList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="AgPastureLIFY" sheetId="2" r:id="rId1"/>
@@ -2042,47 +2042,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2381,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:C63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,674 +2531,674 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>IF(A12=G12,0,1)</f>
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="C13" s="3">
-        <v>30.285714290000001</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>IF(A13=G13,0,1)</f>
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>494</v>
+        <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C14" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>494</v>
       </c>
       <c r="B15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C15" s="3">
-        <v>1.75</v>
+        <v>30.285714290000001</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>494</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C17" s="3">
-        <v>20</v>
+        <v>1.75</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>700</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>IF(A18=G18,0,1)</f>
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="C19" s="3">
-        <v>0.5</v>
+        <v>600</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>IF(A19=G19,0,1)</f>
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="C20" s="3">
-        <v>28</v>
+        <v>0.7</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>IF(A20=G20,0,1)</f>
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="C21" s="3">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>IF(A21=G21,0,1)</f>
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C22" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>607</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C24" s="3">
-        <v>-3</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>608</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C25" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>503</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>504</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C27" s="3">
         <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>578</v>
+        <v>131</v>
       </c>
       <c r="C28" s="3">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>507</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C29" s="3">
-        <v>20</v>
+        <v>0.75</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>507</v>
+        <v>19</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="C30" s="3">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C31" s="3">
-        <v>700</v>
+        <v>0.11</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="C32" s="3">
-        <v>600</v>
+        <v>0.02</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="C33" s="3">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>IF(A33=G33,0,1)</f>
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f>IF(A34=G34,0,1)</f>
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>609</v>
+        <v>569</v>
       </c>
       <c r="C35" s="3">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f>IF(A35=G35,0,1)</f>
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="C36" s="3">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f>IF(A36=G36,0,1)</f>
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="C37" s="3">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C38" s="3">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="C39" s="3">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>518</v>
       </c>
       <c r="B40" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="C40" s="3">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>518</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B41" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C41" s="3">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>520</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C42" s="3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>520</v>
+        <v>56</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>507</v>
       </c>
       <c r="B43" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C43" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f>IF(A43=G43,0,1)</f>
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>507</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3880,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="K102" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,11 +3888,11 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <f>IF(A4=H4,0,1)</f>
+        <f t="shared" ref="E4:E10" si="0">IF(A4=H4,0,1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F10" si="0">IF(TRIM(SUBSTITUTE(B4,":",""))=I4,0,1)</f>
+        <f t="shared" ref="F4:F10" si="1">IF(TRIM(SUBSTITUTE(B4,":",""))=I4,0,1)</f>
         <v>1</v>
       </c>
       <c r="H4" t="s">
@@ -3956,11 +3916,11 @@
         <v>2000</v>
       </c>
       <c r="E5">
-        <f>IF(A5=H5,0,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" t="s">
@@ -3984,11 +3944,11 @@
         <v>500</v>
       </c>
       <c r="E6">
-        <f>IF(A6=H6,0,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" t="s">
@@ -4012,11 +3972,11 @@
         <v>750</v>
       </c>
       <c r="E7">
-        <f>IF(A7=H7,0,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" t="s">
@@ -4034,11 +3994,11 @@
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
       <c r="E8">
-        <f>IF(A8=H8,0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H8" t="s">
@@ -4056,11 +4016,11 @@
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
       <c r="E9">
-        <f>IF(A9=H9,0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H9" t="s">
@@ -4084,11 +4044,11 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <f>IF(A10=H10,0,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H10" t="s">
@@ -4126,7 +4086,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <f>IF(A12=H12,0,1)</f>
+        <f t="shared" ref="E12:E44" si="2">IF(A12=H12,0,1)</f>
         <v>0</v>
       </c>
       <c r="F12">
@@ -4154,11 +4114,11 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <f>IF(A13=H13,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F71" si="1">IF(TRIM(SUBSTITUTE(B13,":",""))=I13,0,1)</f>
+        <f t="shared" ref="F13:F71" si="3">IF(TRIM(SUBSTITUTE(B13,":",""))=I13,0,1)</f>
         <v>0</v>
       </c>
       <c r="H13" t="s">
@@ -4182,11 +4142,11 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <f>IF(A14=H14,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14" t="s">
@@ -4210,11 +4170,11 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f>IF(A15=H15,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H15" t="s">
@@ -4238,11 +4198,11 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>IF(A16=H16,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H16" t="s">
@@ -4257,786 +4217,786 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C17" s="3">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="E17">
-        <f>IF(A17=H17,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="E18">
-        <f>IF(A18=H18,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C19" s="3">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="E19">
-        <f>IF(A19=H19,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>389</v>
+        <v>616</v>
       </c>
       <c r="C20" s="3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E20">
-        <f>IF(A20=H20,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C21" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <f>IF(A21=H21,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>616</v>
+        <v>392</v>
       </c>
       <c r="C22" s="3">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <f>IF(A22=H22,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E23">
-        <f>IF(A23=H23,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I23" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C24" s="3">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="E24">
         <f>IF(A24=H24,0,1)</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f>IF(TRIM(SUBSTITUTE(B24,":",""))=I24,0,1)</f>
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="C25" s="3">
-        <v>1.75</v>
+        <v>700</v>
       </c>
       <c r="E25">
         <f>IF(A25=H25,0,1)</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f>IF(TRIM(SUBSTITUTE(B25,":",""))=I25,0,1)</f>
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>394</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>410</v>
+      </c>
+      <c r="C26" s="3">
+        <v>600</v>
       </c>
       <c r="E26">
         <f>IF(A26=H26,0,1)</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(TRIM(SUBSTITUTE(B26,":",""))=I26,0,1)</f>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C27" s="3">
-        <v>28</v>
+        <v>0.7</v>
       </c>
       <c r="E27">
         <f>IF(A27=H27,0,1)</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f>IF(TRIM(SUBSTITUTE(B27,":",""))=I27,0,1)</f>
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="C28" s="3">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <f>IF(A28=H28,0,1)</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f>IF(TRIM(SUBSTITUTE(B28,":",""))=I28,0,1)</f>
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
-      </c>
-      <c r="C29" s="3">
-        <v>30</v>
+        <v>394</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E29">
-        <f>IF(A29=H29,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C30" s="3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <f>IF(A30=H30,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C31" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E31">
-        <f>IF(A31=H31,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>400</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>397</v>
+      </c>
+      <c r="C32" s="3">
+        <v>30</v>
       </c>
       <c r="E32">
-        <f>IF(A32=H32,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <f>IF(A33=H33,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C34" s="3">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <f>IF(A34=H34,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
-      </c>
-      <c r="C35" s="3">
-        <v>20</v>
+        <v>400</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E35">
-        <f>IF(A35=H35,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <f>IF(A36=H36,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I36" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C37" s="3">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E37">
-        <f>IF(A37=H37,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C38" s="3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <f>IF(A38=H38,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C39" s="3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <f>IF(A39=H39,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C40" s="3">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <f>IF(A40=H40,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C41" s="3">
-        <v>700</v>
+        <v>0.75</v>
       </c>
       <c r="E41">
         <f>IF(A41=H41,0,1)</f>
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f>IF(TRIM(SUBSTITUTE(B41,":",""))=I41,0,1)</f>
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="C42" s="3">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <f>IF(A42=H42,0,1)</f>
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f>IF(TRIM(SUBSTITUTE(B42,":",""))=I42,0,1)</f>
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C43" s="3">
-        <v>0.7</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <f>IF(A43=H43,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C44" s="3">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="E44">
-        <f>IF(A44=H44,0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5050,11 +5010,11 @@
         <v>0.25</v>
       </c>
       <c r="E45">
-        <f>IF(A45=H45,0,1)</f>
+        <f t="shared" ref="E45:E75" si="4">IF(A45=H45,0,1)</f>
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45" t="s">
@@ -5078,11 +5038,11 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <f>IF(A46=H46,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H46" t="s">
@@ -5106,11 +5066,11 @@
         <v>0.5</v>
       </c>
       <c r="E47">
-        <f>IF(A47=H47,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H47" t="s">
@@ -5134,11 +5094,11 @@
         <v>29</v>
       </c>
       <c r="E48">
-        <f>IF(A48=H48,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H48" t="s">
@@ -5162,11 +5122,11 @@
         <v>41</v>
       </c>
       <c r="E49">
-        <f>IF(A49=H49,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H49" t="s">
@@ -5190,11 +5150,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E50">
-        <f>IF(A50=H50,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50" t="s">
@@ -5218,11 +5178,11 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <f>IF(A51=H51,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H51" t="s">
@@ -5246,11 +5206,11 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <f>IF(A52=H52,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" t="s">
@@ -5274,11 +5234,11 @@
         <v>0.6</v>
       </c>
       <c r="E53">
-        <f>IF(A53=H53,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H53" t="s">
@@ -5302,11 +5262,11 @@
         <v>0.5</v>
       </c>
       <c r="E54">
-        <f>IF(A54=H54,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H54" t="s">
@@ -5330,11 +5290,11 @@
         <v>0.1</v>
       </c>
       <c r="E55">
-        <f>IF(A55=H55,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H55" t="s">
@@ -5358,11 +5318,11 @@
         <v>0.7</v>
       </c>
       <c r="E56">
-        <f>IF(A56=H56,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H56" t="s">
@@ -5386,11 +5346,11 @@
         <v>0.7</v>
       </c>
       <c r="E57">
-        <f>IF(A57=H57,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57" t="s">
@@ -5414,11 +5374,11 @@
         <v>500</v>
       </c>
       <c r="E58">
-        <f>IF(A58=H58,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H58" t="s">
@@ -5442,11 +5402,11 @@
         <v>2000</v>
       </c>
       <c r="E59">
-        <f>IF(A59=H59,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H59" t="s">
@@ -5470,11 +5430,11 @@
         <v>3</v>
       </c>
       <c r="E60">
-        <f>IF(A60=H60,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" t="s">
@@ -5498,11 +5458,11 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <f>IF(A61=H61,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H61" t="s">
@@ -5526,11 +5486,11 @@
         <v>3</v>
       </c>
       <c r="E62">
-        <f>IF(A62=H62,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H62" t="s">
@@ -5554,11 +5514,11 @@
         <v>20</v>
       </c>
       <c r="E63">
-        <f>IF(A63=H63,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H63" t="s">
@@ -5582,11 +5542,11 @@
         <v>75</v>
       </c>
       <c r="E64">
-        <f>IF(A64=H64,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H64" t="s">
@@ -5610,11 +5570,11 @@
         <v>0.05</v>
       </c>
       <c r="E65">
-        <f>IF(A65=H65,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H65" t="s">
@@ -5638,11 +5598,11 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <f>IF(A66=H66,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H66" t="s">
@@ -5666,11 +5626,11 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <f>IF(A67=H67,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H67" t="s">
@@ -5694,11 +5654,11 @@
         <v>0.11</v>
       </c>
       <c r="E68">
-        <f>IF(A68=H68,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H68" t="s">
@@ -5722,11 +5682,11 @@
         <v>0.02</v>
       </c>
       <c r="E69">
-        <f>IF(A69=H69,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H69" t="s">
@@ -5750,11 +5710,11 @@
         <v>2</v>
       </c>
       <c r="E70">
-        <f>IF(A70=H70,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H70" t="s">
@@ -5778,11 +5738,11 @@
         <v>20</v>
       </c>
       <c r="E71">
-        <f>IF(A71=H71,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H71" t="s">
@@ -5806,11 +5766,11 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <f>IF(A72=H72,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F135" si="2">IF(TRIM(SUBSTITUTE(B72,":",""))=I72,0,1)</f>
+        <f t="shared" ref="F72:F135" si="5">IF(TRIM(SUBSTITUTE(B72,":",""))=I72,0,1)</f>
         <v>0</v>
       </c>
       <c r="H72" t="s">
@@ -5834,11 +5794,11 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <f>IF(A73=H73,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H73" t="s">
@@ -5862,11 +5822,11 @@
         <v>0.5</v>
       </c>
       <c r="E74">
-        <f>IF(A74=H74,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H74" t="s">
@@ -5890,11 +5850,11 @@
         <v>3</v>
       </c>
       <c r="E75">
-        <f>IF(A75=H75,0,1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H75" t="s">
@@ -5918,11 +5878,11 @@
         <v>0.05</v>
       </c>
       <c r="E76">
-        <f>IF(A76=H76,0,1)</f>
+        <f t="shared" ref="E76:E107" si="6">IF(A76=H76,0,1)</f>
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H76" t="s">
@@ -5946,11 +5906,11 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <f>IF(A77=H77,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H77" t="s">
@@ -5974,11 +5934,11 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <f>IF(A78=H78,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H78" t="s">
@@ -6002,11 +5962,11 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <f>IF(A79=H79,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H79" t="s">
@@ -6030,11 +5990,11 @@
         <v>0.6</v>
       </c>
       <c r="E80">
-        <f>IF(A80=H80,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H80" t="s">
@@ -6058,11 +6018,11 @@
         <v>0.2</v>
       </c>
       <c r="E81">
-        <f>IF(A81=H81,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H81" t="s">
@@ -6086,11 +6046,11 @@
         <v>1500</v>
       </c>
       <c r="E82">
-        <f>IF(A82=H82,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H82" t="s">
@@ -6114,11 +6074,11 @@
         <v>450</v>
       </c>
       <c r="E83">
-        <f>IF(A83=H83,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H83" t="s">
@@ -6142,11 +6102,11 @@
         <v>300</v>
       </c>
       <c r="E84">
-        <f>IF(A84=H84,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H84" t="s">
@@ -6164,11 +6124,11 @@
       <c r="B85" s="2"/>
       <c r="C85" s="5"/>
       <c r="E85">
-        <f>IF(A85=H85,0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H85" t="s">
@@ -6186,11 +6146,11 @@
       <c r="B86" s="2"/>
       <c r="C86" s="5"/>
       <c r="E86">
-        <f>IF(A86=H86,0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H86" t="s">
@@ -6208,11 +6168,11 @@
       <c r="B87" s="2"/>
       <c r="C87" s="5"/>
       <c r="E87">
-        <f>IF(A87=H87,0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H87" t="s">
@@ -6236,11 +6196,11 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <f>IF(A88=H88,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H88" t="s">
@@ -6264,11 +6224,11 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <f>IF(A89=H89,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H89" t="s">
@@ -6292,11 +6252,11 @@
         <v>1.2</v>
       </c>
       <c r="E90">
-        <f>IF(A90=H90,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H90" t="s">
@@ -6320,11 +6280,11 @@
         <v>0.5</v>
       </c>
       <c r="E91">
-        <f>IF(A91=H91,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H91" t="s">
@@ -6348,11 +6308,11 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <f>IF(A92=H92,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H92" t="s">
@@ -6376,11 +6336,11 @@
         <v>0.5</v>
       </c>
       <c r="E93">
-        <f>IF(A93=H93,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H93" t="s">
@@ -6404,11 +6364,11 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <f>IF(A94=H94,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H94" t="s">
@@ -6432,11 +6392,11 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <f>IF(A95=H95,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H95" t="s">
@@ -6460,11 +6420,11 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <f>IF(A96=H96,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H96" t="s">
@@ -6488,11 +6448,11 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <f>IF(A97=H97,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H97" t="s">
@@ -6516,11 +6476,11 @@
         <v>0.5</v>
       </c>
       <c r="E98">
-        <f>IF(A98=H98,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H98" t="s">
@@ -6544,11 +6504,11 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <f>IF(A99=H99,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H99" t="s">
@@ -6572,11 +6532,11 @@
         <v>0.1</v>
       </c>
       <c r="E100">
-        <f>IF(A100=H100,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H100" t="s">
@@ -6600,11 +6560,11 @@
         <v>-1</v>
       </c>
       <c r="E101">
-        <f>IF(A101=H101,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H101" t="s">
@@ -6628,11 +6588,11 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <f>IF(A102=H102,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H102" t="s">
@@ -6656,11 +6616,11 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <f>IF(A103=H103,0,1)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H103" t="s">
@@ -6675,11 +6635,11 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E104">
-        <f>IF(A104=H104,0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H104" s="9" t="s">
@@ -6694,11 +6654,11 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E105">
-        <f>IF(A105=H105,0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H105" s="9" t="s">
@@ -6713,11 +6673,11 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E106">
-        <f>IF(A106=H106,0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H106" s="9" t="s">
@@ -6732,11 +6692,11 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E107">
-        <f>IF(A107=H107,0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H107" s="9" t="s">
@@ -6760,11 +6720,11 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <f>IF(A108=H108,0,1)</f>
+        <f t="shared" ref="E108:E127" si="7">IF(A108=H108,0,1)</f>
         <v>0</v>
       </c>
       <c r="F108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H108" t="s">
@@ -6788,11 +6748,11 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <f>IF(A109=H109,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H109" t="s">
@@ -6816,11 +6776,11 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <f>IF(A110=H110,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H110" t="s">
@@ -6844,11 +6804,11 @@
         <v>750</v>
       </c>
       <c r="E111">
-        <f>IF(A111=H111,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H111" t="s">
@@ -6872,11 +6832,11 @@
         <v>90</v>
       </c>
       <c r="E112">
-        <f>IF(A112=H112,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H112" t="s">
@@ -6900,11 +6860,11 @@
         <v>3.2</v>
       </c>
       <c r="E113">
-        <f>IF(A113=H113,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H113" t="s">
@@ -6928,11 +6888,11 @@
         <v>50</v>
       </c>
       <c r="E114">
-        <f>IF(A114=H114,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H114" t="s">
@@ -6956,11 +6916,11 @@
         <v>25</v>
       </c>
       <c r="E115">
-        <f>IF(A115=H115,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H115" t="s">
@@ -6984,11 +6944,11 @@
         <v>500</v>
       </c>
       <c r="E116">
-        <f>IF(A116=H116,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H116" t="s">
@@ -7012,11 +6972,11 @@
         <v>8000</v>
       </c>
       <c r="E117">
-        <f>IF(A117=H117,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H117" t="s">
@@ -7040,11 +7000,11 @@
         <v>3</v>
       </c>
       <c r="E118">
-        <f>IF(A118=H118,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H118" t="s">
@@ -7068,11 +7028,11 @@
         <v>20</v>
       </c>
       <c r="E119">
-        <f>IF(A119=H119,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H119" t="s">
@@ -7096,11 +7056,11 @@
         <v>45</v>
       </c>
       <c r="E120">
-        <f>IF(A120=H120,0,1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H120" t="s">
@@ -7115,11 +7075,11 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E121">
-        <f>IF(A121=H121,0,1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H121" s="9" t="s">
@@ -7141,11 +7101,11 @@
       </c>
       <c r="C122" s="7"/>
       <c r="E122">
-        <f>IF(A122=H122,0,1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7160,21 +7120,21 @@
         <v>109</v>
       </c>
       <c r="E123">
-        <f>IF(A123=H123,0,1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E124">
-        <f>IF(A124=H124,0,1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H124" t="s">
@@ -7189,11 +7149,11 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E125">
-        <f>IF(A125=H125,0,1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H125" t="s">
@@ -7208,11 +7168,11 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E126">
-        <f>IF(A126=H126,0,1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H126" t="s">
@@ -7227,11 +7187,11 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E127">
-        <f>IF(A127=H127,0,1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H127" t="s">
@@ -7246,11 +7206,11 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E128">
-        <f t="shared" ref="E128:F143" si="3">IF(A128=H128,0,1)</f>
+        <f t="shared" ref="E128:E143" si="8">IF(A128=H128,0,1)</f>
         <v>1</v>
       </c>
       <c r="F128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H128" t="s">
@@ -7265,11 +7225,11 @@
     </row>
     <row r="129" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H129" t="s">
@@ -7284,11 +7244,11 @@
     </row>
     <row r="130" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H130" t="s">
@@ -7303,11 +7263,11 @@
     </row>
     <row r="131" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H131" t="s">
@@ -7322,11 +7282,11 @@
     </row>
     <row r="132" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H132" t="s">
@@ -7341,11 +7301,11 @@
     </row>
     <row r="133" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H133" t="s">
@@ -7360,11 +7320,11 @@
     </row>
     <row r="134" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H134" t="s">
@@ -7379,11 +7339,11 @@
     </row>
     <row r="135" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H135" t="s">
@@ -7398,11 +7358,11 @@
     </row>
     <row r="136" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F136">
-        <f t="shared" ref="F136:F143" si="4">IF(TRIM(SUBSTITUTE(B136,":",""))=I136,0,1)</f>
+        <f t="shared" ref="F136:F143" si="9">IF(TRIM(SUBSTITUTE(B136,":",""))=I136,0,1)</f>
         <v>1</v>
       </c>
       <c r="H136" t="s">
@@ -7417,11 +7377,11 @@
     </row>
     <row r="137" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H137" t="s">
@@ -7436,11 +7396,11 @@
     </row>
     <row r="138" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H138" t="s">
@@ -7455,11 +7415,11 @@
     </row>
     <row r="139" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H139" t="s">
@@ -7474,11 +7434,11 @@
     </row>
     <row r="140" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H140" t="s">
@@ -7493,11 +7453,11 @@
     </row>
     <row r="141" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H141" t="s">
@@ -7512,11 +7472,11 @@
     </row>
     <row r="142" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H142" t="s">
@@ -7531,11 +7491,11 @@
     </row>
     <row r="143" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H143" t="s">
